--- a/biology/Zoologie/Garypus/Garypus.xlsx
+++ b/biology/Zoologie/Garypus/Garypus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Garypus est un genre de pseudoscorpions de la famille des Garypidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie, en Asie, en Amérique, en Afrique et en Europe du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie, en Asie, en Amérique, en Afrique et en Europe du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent sur le littoral sauf Garypus armeniacus[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent sur le littoral sauf Garypus armeniacus.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plus grande espèce connue en France est Garypus beauvoisii, une espèce méditerranéenne qui atteint une envergure de 6 à 7 mm[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus grande espèce connue en France est Garypus beauvoisii, une espèce méditerranéenne qui atteint une envergure de 6 à 7 mm.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Pseudoscorpions of the World (version 3.0)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Pseudoscorpions of the World (version 3.0) :
 Garypus armeniacus Redikorzev, 1926
 Garypus beauvoisii (Audouin, 1826)
 Garypus bonairensis Beier, 1936
@@ -645,7 +665,7 @@
 Garypus wilsoni Lin &amp; Chang, 2022
 Garypus withi Hoff, 1946
 Garypus yeni Harvey, 2020
-Garypus californicus, Garypus guadalupensis et Garypus japonicus ont été placées dans le genre Anchigarypus par Harvey, Hillyer, Carvajal et Huey en 2020[2].
+Garypus californicus, Garypus guadalupensis et Garypus japonicus ont été placées dans le genre Anchigarypus par Harvey, Hillyer, Carvajal et Huey en 2020.
 </t>
         </is>
       </c>
@@ -674,7 +694,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par L. Koch en 1873.
 </t>
@@ -705,7 +727,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>L. Koch, 1873 : Uebersichtliche Dartstellung der Europäischen Chernetiden (Pseudoscorpione). Bauer und Raspe, Nürnberg, p. 1-68 (texte intégral).</t>
         </is>
